--- a/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
+++ b/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="41">
   <si>
     <t>Flow</t>
   </si>
@@ -64,6 +64,78 @@
   </si>
   <si>
     <t>GoHome</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>DoClick</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>SelectTab</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t># Set Birthday</t>
+  </si>
+  <si>
+    <t>Set Birthday</t>
+  </si>
+  <si>
+    <t>DoSetText</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>25/12/1999</t>
+  </si>
+  <si>
+    <t>DoSendKeys</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>{TAB}</t>
+  </si>
+  <si>
+    <t>12/25/1999</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>LookupField</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>objectid</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>A Datum Corporation</t>
   </si>
 </sst>
 </file>
@@ -84,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="174">
     <border>
       <left/>
       <right/>
@@ -252,11 +324,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -418,6 +503,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -467,8 +565,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
@@ -543,154 +645,309 @@
       <c r="H5" s="40"/>
     </row>
     <row r="6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="A6" s="162"/>
     </row>
     <row r="7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="A7" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="A8" s="170"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="A9" s="173"/>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="A10" s="171"/>
     </row>
     <row r="11">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="A11" s="172"/>
     </row>
     <row r="12">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
+      <c r="A12" s="163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="A13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="48"/>
     </row>
     <row r="14">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
+      <c r="A14" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="56"/>
     </row>
     <row r="16">
-      <c r="A16" s="121"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
+      <c r="A17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="152"/>
+      <c r="A19" s="167"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="89"/>
+      <c r="B21" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="97"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="144"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="152"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
+++ b/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
   <si>
     <t>Flow</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>A Datum Corporation</t>
+  </si>
+  <si>
+    <t>SetDate</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="174">
+  <borders count="176">
     <border>
       <left/>
       <right/>
@@ -337,11 +340,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -516,6 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -799,155 +806,101 @@
       <c r="H17" s="72"/>
     </row>
     <row r="18">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19">
-      <c r="A19" s="167"/>
+      <c r="A19" s="175"/>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="88"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="96"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="128"/>
     </row>
     <row r="22">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
     </row>
     <row r="23">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="120"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="144"/>
     </row>
     <row r="24">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="152"/>
     </row>
     <row r="25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="152"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
+      <c r="A25" s="153"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="160"/>
     </row>
   </sheetData>
 </worksheet>

--- a/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
+++ b/D365SalesRvlFramework/TestCase1/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="49">
   <si>
     <t>Flow</t>
   </si>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>SetDate</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>DoSleep</t>
+  </si>
+  <si>
+    <t>millis</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -159,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="176">
+  <borders count="187">
     <border>
       <left/>
       <right/>
@@ -342,11 +363,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -523,6 +555,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -655,131 +698,125 @@
       <c r="A6" s="162"/>
     </row>
     <row r="7">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="176" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="177"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="178"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="183"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="184"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="180"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="170"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="14">
+      <c r="A14" s="170"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="173"/>
-      <c r="B9" t="s">
+    <row r="15">
+      <c r="A15" s="173"/>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="171"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="172"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="56"/>
     </row>
     <row r="16">
       <c r="A16" s="57"/>
@@ -806,101 +843,122 @@
       <c r="H17" s="72"/>
     </row>
     <row r="18">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="99" t="s">
+      <c r="A18" s="186"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E19" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="102" t="s">
+      <c r="F19" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G19" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="104"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="175"/>
-      <c r="B19" t="s">
+      <c r="H19" s="104"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="175"/>
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-    </row>
     <row r="21">
-      <c r="A21" s="121"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22">
-      <c r="A22" s="129"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="128"/>
     </row>
     <row r="23">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
     </row>
     <row r="24">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="152"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="144"/>
     </row>
     <row r="25">
-      <c r="A25" s="153"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="152"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160"/>
     </row>
   </sheetData>
 </worksheet>
